--- a/data_processed/20250724/BTCUSDQMOMENT_20250724.xlsx
+++ b/data_processed/20250724/BTCUSDQMOMENT_20250724.xlsx
@@ -1160,10 +1160,18 @@
       <c r="H19" t="n">
         <v>7.326286247910778</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>-0.2934792600301572</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.133698717246106</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.01417999873967634</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.113179830839791</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250724/BTCUSDQMOMENT_20250724.xlsx
+++ b/data_processed/20250724/BTCUSDQMOMENT_20250724.xlsx
@@ -560,10 +560,18 @@
       <c r="H3" t="n">
         <v>12.87568493774282</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.4402146986448091</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2205116493645886</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.3873567498259738</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.794096978151844</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250724/BTCUSDQMOMENT_20250724.xlsx
+++ b/data_processed/20250724/BTCUSDQMOMENT_20250724.xlsx
@@ -588,19 +588,19 @@
         <v>0.1753424657534247</v>
       </c>
       <c r="D4" t="n">
-        <v>120870.0062680453</v>
+        <v>120881.7696844014</v>
       </c>
       <c r="E4" t="n">
-        <v>0.005238676193524963</v>
+        <v>0.005701172348689007</v>
       </c>
       <c r="F4" t="n">
-        <v>0.212669390454389</v>
+        <v>0.2109519979071997</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.9313185484990842</v>
+        <v>-0.8780328650539042</v>
       </c>
       <c r="H4" t="n">
-        <v>10.42831771197736</v>
+        <v>10.04707556779084</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -622,19 +622,19 @@
         <v>0.2712328767123288</v>
       </c>
       <c r="D5" t="n">
-        <v>121630.4671138932</v>
+        <v>121634.8698152941</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.009677426382816916</v>
+        <v>-0.008007288397447573</v>
       </c>
       <c r="F5" t="n">
-        <v>0.265949000174627</v>
+        <v>0.2452145485602044</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.761437449335112</v>
+        <v>-1.498847144656258</v>
       </c>
       <c r="H5" t="n">
-        <v>36.86099041590774</v>
+        <v>14.61334348651454</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -656,19 +656,19 @@
         <v>0.3479452054794521</v>
       </c>
       <c r="D6" t="n">
-        <v>122506.0715126135</v>
+        <v>122440.5967101872</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.007700820667828625</v>
+        <v>-0.01129619101681994</v>
       </c>
       <c r="F6" t="n">
-        <v>0.220268912793293</v>
+        <v>0.2373930205165067</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2773152946435704</v>
+        <v>-0.7958815700460629</v>
       </c>
       <c r="H6" t="n">
-        <v>5.440214516757742</v>
+        <v>8.898084716579019</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -690,19 +690,19 @@
         <v>0.4246575342465753</v>
       </c>
       <c r="D7" t="n">
-        <v>122940.9389024459</v>
+        <v>122942.596137441</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0220578500032855</v>
+        <v>-0.02216601488762607</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2601887051277191</v>
+        <v>0.2615360106843354</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.049632987765682</v>
+        <v>-1.112302714458814</v>
       </c>
       <c r="H7" t="n">
-        <v>9.689444424774232</v>
+        <v>10.43121008248945</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -792,19 +792,19 @@
         <v>1.172602739726027</v>
       </c>
       <c r="D10" t="n">
-        <v>127429.7152396879</v>
+        <v>127412.8809553762</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1036900128348348</v>
+        <v>-0.1072430033567299</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4061284923238625</v>
+        <v>0.4275657330159595</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.661547583247185</v>
+        <v>-1.882630269589332</v>
       </c>
       <c r="H10" t="n">
-        <v>8.305845655639175</v>
+        <v>9.869611084126728</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -826,19 +826,19 @@
         <v>1.419178082191781</v>
       </c>
       <c r="D11" t="n">
-        <v>133380.7095596964</v>
+        <v>129521.4253130758</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.08495172064901818</v>
+        <v>-0.1885398322361442</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4126910008975047</v>
+        <v>0.7839394867495538</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.750115576432086</v>
+        <v>-2.673532320397709</v>
       </c>
       <c r="H11" t="n">
-        <v>7.793020275422314</v>
+        <v>13.23845215064072</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1028,19 +1028,19 @@
         <v>0.02191780821917808</v>
       </c>
       <c r="D16" t="n">
-        <v>120089.7896683697</v>
+        <v>120091.9994918526</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07974182641524476</v>
+        <v>0.08007350455269151</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1602780288270883</v>
+        <v>0.1565384819186414</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.202977020496951</v>
+        <v>-0.8784223722915391</v>
       </c>
       <c r="H16" t="n">
-        <v>14.8558954958635</v>
+        <v>10.71788013164242</v>
       </c>
       <c r="I16" t="n">
         <v>-0.159181898095609</v>
@@ -1070,19 +1070,19 @@
         <v>0.0410958904109589</v>
       </c>
       <c r="D17" t="n">
-        <v>120130.4796868238</v>
+        <v>120130.5270740523</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05283940918006754</v>
+        <v>0.05284491353953667</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1594523215732176</v>
+        <v>0.1594057360540436</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.5823991050575098</v>
+        <v>-0.5794787158592212</v>
       </c>
       <c r="H17" t="n">
-        <v>9.146456283325461</v>
+        <v>9.121386771330327</v>
       </c>
       <c r="I17" t="n">
         <v>-0.3727266601802046</v>
@@ -1154,19 +1154,19 @@
         <v>0.07945205479452055</v>
       </c>
       <c r="D19" t="n">
-        <v>120148.4514472906</v>
+        <v>120218.4039220277</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02396723614915406</v>
+        <v>0.02732553869782511</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1825264356890512</v>
+        <v>0.1709893051352793</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.537427442954055</v>
+        <v>-0.1709342502729509</v>
       </c>
       <c r="H19" t="n">
-        <v>7.326286247910778</v>
+        <v>5.585961606990766</v>
       </c>
       <c r="I19" t="n">
         <v>-0.2934792600301572</v>

--- a/data_processed/20250724/BTCUSDQMOMENT_20250724.xlsx
+++ b/data_processed/20250724/BTCUSDQMOMENT_20250724.xlsx
@@ -602,10 +602,18 @@
       <c r="H4" t="n">
         <v>10.04707556779084</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.6453623611420161</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2612523288778236</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.1625477463701754</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.416237021353649</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">

--- a/data_processed/20250724/BTCUSDQMOMENT_20250724.xlsx
+++ b/data_processed/20250724/BTCUSDQMOMENT_20250724.xlsx
@@ -644,10 +644,18 @@
       <c r="H5" t="n">
         <v>14.61334348651454</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>-0.6830381338146789</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4528597409125978</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2594084689748836</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.655278111889562</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
